--- a/message_ix/tests/data/westeros_macro_input.xlsx
+++ b/message_ix/tests/data/westeros_macro_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zakeri\Documents\Github\message_ix\message_ix\tests\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unlu\Documents\GitHub\message_ix\message_ix\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CF5EEE-CAF6-44C6-AA44-21FC930AD203}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A273834-3D6F-419B-B6D9-73AC2FE3E566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="255" windowWidth="21600" windowHeight="12360" tabRatio="979" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8190" yWindow="2880" windowWidth="12435" windowHeight="8730" tabRatio="979" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="price_ref" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="22">
   <si>
     <t>node</t>
   </si>
@@ -766,7 +766,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,18 +851,20 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="11.28515625"/>
+    <col min="1" max="2" width="11.28515625"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="1026" width="11.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -870,16 +872,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -887,23 +886,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E3">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E4">
-        <v>720</v>
       </c>
     </row>
   </sheetData>

--- a/message_ix/tests/data/westeros_macro_input.xlsx
+++ b/message_ix/tests/data/westeros_macro_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zakeri\Documents\Github\message_ix\message_ix\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE44DA44-539A-4418-80D6-1165D2CDF36A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CF5EEE-CAF6-44C6-AA44-21FC930AD203}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="12270" tabRatio="979" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="255" windowWidth="21600" windowHeight="12360" tabRatio="979" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="price_ref" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="22">
   <si>
     <t>node</t>
   </si>
@@ -106,6 +109,9 @@
   </si>
   <si>
     <t>T$</t>
+  </si>
+  <si>
+    <t>commodity</t>
   </si>
 </sst>
 </file>
@@ -759,7 +765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
@@ -845,10 +851,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,7 +862,7 @@
     <col min="1" max="1025" width="11.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -866,8 +872,14 @@
       <c r="C1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -876,6 +888,22 @@
       </c>
       <c r="C2" t="s">
         <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>720</v>
       </c>
     </row>
   </sheetData>

--- a/message_ix/tests/data/westeros_macro_input.xlsx
+++ b/message_ix/tests/data/westeros_macro_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unlu\Documents\GitHub\message_ix\message_ix\tests\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zakeri\Documents\Github\message_ix\message_ix\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A273834-3D6F-419B-B6D9-73AC2FE3E566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695EA837-2C13-4885-86C7-5501E8F0242A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8190" yWindow="2880" windowWidth="12435" windowHeight="8730" tabRatio="979" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="345" windowWidth="21600" windowHeight="12360" tabRatio="979" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="price_ref" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="22">
   <si>
     <t>node</t>
   </si>
@@ -521,10 +521,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,6 +632,23 @@
         <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>730</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -851,10 +868,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,7 +881,7 @@
     <col min="4" max="1026" width="11.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -877,8 +894,11 @@
       <c r="D1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -890,6 +910,19 @@
       </c>
       <c r="D2" t="s">
         <v>14</v>
+      </c>
+      <c r="E2" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="1">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="1">
+        <v>720</v>
       </c>
     </row>
   </sheetData>
